--- a/artfynd/A 61399-2025 artfynd.xlsx
+++ b/artfynd/A 61399-2025 artfynd.xlsx
@@ -1088,7 +1088,7 @@
         <v>131154647</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>131154648</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>131154646</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>131154650</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131154645</v>
+        <v>131154649</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1745,31 +1745,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1777,10 +1772,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>428976</v>
+        <v>428953</v>
       </c>
       <c r="R10" t="n">
-        <v>7064670</v>
+        <v>7064677</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1817,7 +1812,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gammal grovbarkad gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1826,6 +1821,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1846,12 +1842,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1869,10 +1865,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131154649</v>
+        <v>131154645</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1880,26 +1876,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1907,10 +1908,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>428953</v>
+        <v>428976</v>
       </c>
       <c r="R11" t="n">
-        <v>7064677</v>
+        <v>7064670</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1947,7 +1948,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en gammal grovbarkad gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1956,7 +1957,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1977,12 +1977,12 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2342,7 +2342,7 @@
         <v>131187640</v>
       </c>
       <c r="B15" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131187637</v>
+        <v>131187639</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2953,16 +2953,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>428888</v>
+        <v>428867</v>
       </c>
       <c r="R21" t="n">
-        <v>7064707</v>
+        <v>7064729</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Färska hack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3044,10 +3044,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131187639</v>
+        <v>131187637</v>
       </c>
       <c r="B22" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3055,16 +3055,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3079,10 +3079,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>428867</v>
+        <v>428888</v>
       </c>
       <c r="R22" t="n">
-        <v>7064729</v>
+        <v>7064707</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Färska hack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 61399-2025 artfynd.xlsx
+++ b/artfynd/A 61399-2025 artfynd.xlsx
@@ -950,10 +950,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131154640</v>
+        <v>131154647</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,31 +961,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -993,10 +988,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>428785</v>
+        <v>428812</v>
       </c>
       <c r="R4" t="n">
-        <v>7064733</v>
+        <v>7064738</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,17 +1026,13 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gammal gran.</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1062,12 +1053,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1085,10 +1076,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131154647</v>
+        <v>131154640</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1096,26 +1087,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1123,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>428812</v>
+        <v>428785</v>
       </c>
       <c r="R5" t="n">
-        <v>7064738</v>
+        <v>7064733</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1161,13 +1157,17 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gammal gran.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1188,12 +1188,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
